--- a/data/balance_sheet/3digits/total/202_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/202_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>202-Manufacture of pesticides and other agrochemical products</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>202-Manufacture of pesticides and other agrochemical products</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>334176.79626</v>
@@ -1484,38 +934,43 @@
         <v>409421.96823</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>608968.0525600001</v>
+        <v>608968.05256</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>647511.3631600001</v>
+        <v>647511.3631599999</v>
       </c>
       <c r="G5" s="32" t="n">
         <v>817019.263</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>879035.6703</v>
+        <v>882054.2153100001</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>1066785.82833</v>
+        <v>1120474.69497</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>1375127.78018</v>
+        <v>1429702.97252</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1956486.56825</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>2873227.40027</v>
+        <v>2882897.23738</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>3800060.55633</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>3830703.66938</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>6011533.387</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>90364.53421000001</v>
@@ -1533,29 +988,34 @@
         <v>245406.65207</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>239646.18072</v>
+        <v>239822.28748</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>318387.99916</v>
+        <v>321448.41578</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>348719.09764</v>
+        <v>362384.312</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>322550.0104199999</v>
+        <v>322550.01042</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>409314.5040699999</v>
+        <v>409652.46928</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>912231.6925300001</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>917574.5672899999</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>952183.0919999999</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>1603.39725</v>
@@ -1573,29 +1033,34 @@
         <v>5823.66947</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>5581.88939</v>
+        <v>5614.63747</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>5523.79493</v>
+        <v>5701.48934</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>7614.32062</v>
+        <v>7654.733029999999</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>7313.529169999999</v>
+        <v>7313.529170000001</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>8587.796629999999</v>
+        <v>8814.18648</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>7892.51903</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>7954.707460000001</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>55154.406</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>58201.71089</v>
@@ -1616,26 +1081,31 @@
         <v>214890.94169</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>273014.54521</v>
+        <v>274726.92271</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>295888.57275</v>
+        <v>307909.83287</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>274229.32386</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>338000.05328</v>
+        <v>338010.05328</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>404717.5714599999</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>406374.54436</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>575792.879</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>34385.81533</v>
@@ -1644,44 +1114,49 @@
         <v>63491.85111</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>57395.68355</v>
+        <v>57395.68354999999</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>40022.29080999999</v>
+        <v>40022.29081000001</v>
       </c>
       <c r="G9" s="22" t="n">
         <v>44771.04016</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>36979.07125</v>
+        <v>37122.42993</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>60585.38637</v>
+        <v>61733.27677</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>65640.83637999999</v>
+        <v>67180.99106999999</v>
       </c>
       <c r="K9" s="22" t="n">
-        <v>62822.82309999999</v>
+        <v>62822.8231</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>82101.64057999999</v>
+        <v>82203.21593999999</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>520013.19574</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>523644.89635</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>372452.352</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>3967.14698</v>
       </c>
       <c r="D10" s="22" t="n">
-        <v>7295.01824</v>
+        <v>7295.018239999999</v>
       </c>
       <c r="E10" s="22" t="n">
         <v>10039.11109</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>23853.28901</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>59628.42</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>140.75772</v>
@@ -1727,19 +1207,19 @@
         <v>166.72636</v>
       </c>
       <c r="F11" s="21" t="n">
-        <v>639.0077499999999</v>
+        <v>639.00775</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>367.2799400000001</v>
+        <v>367.27994</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>685.35513</v>
+        <v>685.3551300000001</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>2228.22854</v>
+        <v>2250.68285</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>1456.2499</v>
+        <v>1519.63704</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>4020.31819</v>
@@ -1748,14 +1228,19 @@
         <v>3185.3884</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>3461.69531</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>3453.70813</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>8411.875</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>16.57869</v>
@@ -1782,20 +1267,25 @@
         <v>1.00021</v>
       </c>
       <c r="K12" s="23" t="n">
-        <v>660.38067</v>
+        <v>660.3806699999999</v>
       </c>
       <c r="L12" s="23" t="n">
         <v>0.00021</v>
       </c>
       <c r="M12" s="23" t="n">
-        <v>972.1735500000001</v>
-      </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+        <v>972.17376</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>43564.003</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>593.5801</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>939.909</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>2228.725</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>16.57869</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>378.59345</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>0</v>
@@ -1948,14 +1453,19 @@
         <v>0.00021</v>
       </c>
       <c r="M16" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+        <v>0.00021</v>
+      </c>
+      <c r="N16" s="22" t="n">
+        <v>40388.66</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,18 +1500,23 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>112414.99559</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>98248.39004000001</v>
+        <v>98248.39004</v>
       </c>
       <c r="E18" s="23" t="n">
         <v>155203.73706</v>
@@ -2013,35 +1528,40 @@
         <v>216825.40228</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>257219.257</v>
+        <v>258920.01723</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>293041.38699</v>
+        <v>301588.92824</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>428792.86474</v>
+        <v>457525.72049</v>
       </c>
       <c r="K18" s="23" t="n">
-        <v>828464.05793</v>
+        <v>828464.0579299998</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>1137178.56583</v>
+        <v>1146311.01205</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>1471942.41193</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>1491551.52496</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>2717588.506</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
-        <v>69637.05075999998</v>
+        <v>69637.05076</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>65079.89318</v>
+        <v>65079.89318000001</v>
       </c>
       <c r="E19" s="22" t="n">
         <v>108622.39512</v>
@@ -2053,29 +1573,34 @@
         <v>156663.64381</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>175898.41221</v>
+        <v>176300.82807</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>206070.23309</v>
+        <v>211614.55495</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>258985.4638</v>
+        <v>286343.95441</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>381223.75149</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>630395.58724</v>
+        <v>639412.3298200001</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>854259.2721000001</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>870063.5060800001</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>1450417.623</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>39406.75603</v>
@@ -2090,16 +1615,16 @@
         <v>37561.10959</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>52435.73744999999</v>
+        <v>52435.73745</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>76836.97734</v>
+        <v>78117.56494</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>81184.92784</v>
+        <v>82877.71679999999</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>163597.03646</v>
+        <v>164242.1646</v>
       </c>
       <c r="K20" s="22" t="n">
         <v>437599.60886</v>
@@ -2108,14 +1633,19 @@
         <v>512429.14011</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>623212.57938</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>625902.98378</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>1295206.957</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>720.19408</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>19379.79897</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>44642.476</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,24 +1725,29 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>636.77888</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>905.5126100000001</v>
+        <v>905.5126099999999</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>822.47484</v>
+        <v>822.4748400000001</v>
       </c>
       <c r="F23" s="21" t="n">
-        <v>785.9440999999998</v>
+        <v>785.9440999999999</v>
       </c>
       <c r="G23" s="22" t="n">
         <v>2003.16036</v>
@@ -2219,23 +1759,28 @@
         <v>3382.37116</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>2258.92687</v>
+        <v>2988.16387</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>6058.399189999999</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>4515.56403</v>
+        <v>4516.07781</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>4736.18011</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>5145.14768</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>4381.117</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>626.3729599999999</v>
@@ -2256,7 +1801,7 @@
         <v>1192.61358</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>538.0798199999999</v>
+        <v>1840.10748</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>1690.86206</v>
@@ -2265,17 +1810,22 @@
         <v>2086.2249</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>878.8663899999999</v>
+        <v>878.86639</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>602.3228200000001</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>677.3737000000001</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>898.401</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>8286.365970000001</v>
@@ -2293,35 +1843,40 @@
         <v>18187.38343</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>16183.56556</v>
+        <v>16529.3193</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>15621.24484</v>
+        <v>15986.38707</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>19857.92363</v>
       </c>
       <c r="K25" s="22" t="n">
-        <v>31264.88744000001</v>
+        <v>31264.88744</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>33549.69205</v>
+        <v>33664.88191</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>51900.76076999999</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>52840.06745</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>66814.091</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>5458.134929999999</v>
       </c>
       <c r="D26" s="22" t="n">
-        <v>6222.04997</v>
+        <v>6222.049969999999</v>
       </c>
       <c r="E26" s="22" t="n">
         <v>6503.380230000001</v>
@@ -2333,10 +1888,10 @@
         <v>11259.81863</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>12396.85446</v>
+        <v>12724.85143</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>10719.73873</v>
+        <v>11076.47819</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>13872.73719</v>
@@ -2348,20 +1903,25 @@
         <v>29812.29289</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>43388.90428</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>43697.75476</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>55487.207</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>4106.439579999999</v>
       </c>
       <c r="D27" s="23" t="n">
-        <v>9083.24624</v>
+        <v>9083.246240000002</v>
       </c>
       <c r="E27" s="23" t="n">
         <v>10265.08505</v>
@@ -2373,10 +1933,10 @@
         <v>9860.63091</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>15903.26057</v>
+        <v>16244.7502</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>18783.9384</v>
+        <v>19120.82249</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>23294.94056</v>
@@ -2385,57 +1945,67 @@
         <v>28648.22838</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>54088.15835</v>
+        <v>54089.95241</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>82621.52156000001</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>83405.9109</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>297378.741</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>2595.71825</v>
       </c>
       <c r="D28" s="22" t="n">
-        <v>6508.1898</v>
+        <v>6508.189799999999</v>
       </c>
       <c r="E28" s="22" t="n">
-        <v>5323.66598</v>
+        <v>5323.665980000001</v>
       </c>
       <c r="F28" s="21" t="n">
         <v>1179.3173</v>
       </c>
       <c r="G28" s="22" t="n">
-        <v>820.37289</v>
+        <v>820.3728899999999</v>
       </c>
       <c r="H28" s="21" t="n">
         <v>1878.19044</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>2248.39953</v>
+        <v>2263.10753</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>3834.052999999999</v>
+        <v>3834.053</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>6303.2416</v>
+        <v>6303.241599999999</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>34303.16694</v>
+        <v>34304.16843999999</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>48830.108</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>49400.54690000001</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>193202.726</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>96.21899999999999</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>78.47199999999999</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>50.29006</v>
@@ -2536,10 +2116,10 @@
         <v>64.72549000000001</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>71.00666</v>
+        <v>71.28996000000001</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>56.70495999999999</v>
+        <v>56.70496</v>
       </c>
       <c r="K31" s="22" t="n">
         <v>67.22607000000001</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>25.46456</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>60.185</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>1460.43127</v>
@@ -2573,10 +2158,10 @@
         <v>7335.62713</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>12245.18422</v>
+        <v>12586.67385</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>13998.01179</v>
+        <v>14319.90458</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>17121.86218</v>
@@ -2585,17 +2170,22 @@
         <v>21206.76309</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>18616.00913</v>
+        <v>18616.80169</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>33765.949</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>33979.89944</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>103941.139</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>107394.52491</v>
@@ -2733,35 +2338,40 @@
         <v>293820.12851</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>317165.92586</v>
+        <v>317935.6127999999</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>389338.5825500001</v>
+        <v>422779.18721</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>508964.70019</v>
+        <v>521074.75559</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>686995.4818099999</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>1137918.73736</v>
+        <v>1138036.25527</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>1171134.88265</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>1172271.87138</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>1792276.32</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
-        <v>45207.05738</v>
+        <v>45207.05738000001</v>
       </c>
       <c r="D37" s="22" t="n">
-        <v>56394.01722</v>
+        <v>56394.01722000001</v>
       </c>
       <c r="E37" s="22" t="n">
         <v>96917.24819</v>
@@ -2773,32 +2383,37 @@
         <v>105091.75559</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>128813.21159</v>
+        <v>129310.76975</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>178139.02568</v>
+        <v>195973.72152</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>241909.58596</v>
+        <v>243047.81</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>301094.56964</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>585766.77063</v>
+        <v>585769.57063</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>513508.8966</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>514419.30888</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>815942.4840000001</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
-        <v>4379.172560000001</v>
+        <v>4379.17256</v>
       </c>
       <c r="D38" s="22" t="n">
         <v>4582.840990000001</v>
@@ -2813,29 +2428,34 @@
         <v>23978.36359</v>
       </c>
       <c r="H38" s="21" t="n">
-        <v>14292.3584</v>
+        <v>14414.26863</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>19079.67762</v>
+        <v>20651.03849</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>26353.32642</v>
       </c>
       <c r="K38" s="22" t="n">
-        <v>39534.06393999999</v>
+        <v>39534.06394</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>72659.65478</v>
+        <v>72745.41812999999</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>71179.44898999999</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>71298.94834</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>104119.687</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>24238.61732</v>
@@ -2853,13 +2473,13 @@
         <v>68170.28634000001</v>
       </c>
       <c r="H39" s="21" t="n">
-        <v>83988.35789</v>
+        <v>84087.85789</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>94246.38025</v>
+        <v>100454.38096</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>142721.52672</v>
+        <v>143908.64477</v>
       </c>
       <c r="K39" s="22" t="n">
         <v>155693.42001</v>
@@ -2868,14 +2488,19 @@
         <v>250578.70161</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>350986.56002</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>351316.98208</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>394617.838</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>17047.15787</v>
@@ -2890,35 +2515,40 @@
         <v>32024.91406</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>35903.74230999999</v>
+        <v>35903.74231</v>
       </c>
       <c r="H40" s="21" t="n">
         <v>30789.74493</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>31145.14069</v>
+        <v>32423.68876</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>30626.41662</v>
+        <v>38419.15390999999</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>48735.39875000001</v>
+        <v>48735.39875</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>62772.6971</v>
+        <v>62801.65166</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>80569.26066999999</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>80649.73628</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>110260.517</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
-        <v>536.52417</v>
+        <v>536.5241699999999</v>
       </c>
       <c r="D41" s="22" t="n">
         <v>470.32026</v>
@@ -2939,23 +2569,28 @@
         <v>23929.26067</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>16675.79447</v>
+        <v>18667.77049</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>58004.99169</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>61629.39039999999</v>
+        <v>61629.3904</v>
       </c>
       <c r="M41" s="22" t="n">
         <v>48053.80273</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>90303.049</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>78.30007000000001</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>130.363</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>16064.29568</v>
@@ -3013,29 +2653,34 @@
         <v>46425.81171</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>40641.27437</v>
+        <v>40691.99292</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>42799.09764</v>
+        <v>49347.09681</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>50678.05</v>
       </c>
       <c r="K43" s="22" t="n">
-        <v>83933.03778</v>
+        <v>83933.03778000001</v>
       </c>
       <c r="L43" s="22" t="n">
         <v>104511.52284</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>106836.91364</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>106533.09307</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>277163.108</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,18 +2850,23 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1352.61917</v>
       </c>
       <c r="D48" s="46" t="n">
-        <v>691.4941600000001</v>
+        <v>691.49416</v>
       </c>
       <c r="E48" s="46" t="n">
         <v>782.7339700000001</v>
@@ -3213,29 +2878,34 @@
         <v>1674.56705</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>2134.81574</v>
+        <v>2159.9076</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>1196.84327</v>
+        <v>3450.78308</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>3118.42469</v>
+        <v>3129.05281</v>
       </c>
       <c r="K48" s="46" t="n">
-        <v>9532.542039999998</v>
+        <v>9532.54204</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>10441.22233</v>
+        <v>10441.53716</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>9228.02815</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>9256.896480000001</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>24817.478</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>1234.68144</v>
@@ -3244,7 +2914,7 @@
         <v>459.10999</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>564.5300699999999</v>
+        <v>564.53007</v>
       </c>
       <c r="F49" s="21" t="n">
         <v>908.1909400000001</v>
@@ -3253,29 +2923,34 @@
         <v>1657.4313</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>2134.25283</v>
+        <v>2159.34469</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>1153.26741</v>
+        <v>3406.58626</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>3053.53879</v>
+        <v>3064.16691</v>
       </c>
       <c r="K49" s="22" t="n">
-        <v>9464.294820000001</v>
+        <v>9464.294820000003</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>9577.42482</v>
+        <v>9577.73965</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>6344.863420000001</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>6373.00405</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>14162.156</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>117.93773</v>
@@ -3296,7 +2971,7 @@
         <v>0.56291</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>43.57586</v>
+        <v>44.19682</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>64.88589999999999</v>
@@ -3308,14 +2983,19 @@
         <v>863.79751</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>2883.16473</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>2883.89243</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>10655.322</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>18527.10411</v>
@@ -3333,29 +3013,34 @@
         <v>49363.88769</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>46484.58955</v>
+        <v>46489.99914</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>45556.52292</v>
+        <v>51606.00313</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>62236.75215</v>
+        <v>62293.19086</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>79635.867</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>124286.21212</v>
+        <v>124366.011</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>151929.84596</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>155670.72461</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>183725.247</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>13377.15345</v>
@@ -3364,7 +3049,7 @@
         <v>19768.63349</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>32244.38198000001</v>
+        <v>32244.38198</v>
       </c>
       <c r="F52" s="21" t="n">
         <v>31189.33801</v>
@@ -3376,26 +3061,31 @@
         <v>34081.40156000001</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>34507.50301</v>
+        <v>38731.48183</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>41936.16587999999</v>
+        <v>41992.60459</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>54438.17889999999</v>
+        <v>54438.1789</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>70756.91105</v>
+        <v>70836.70993000001</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>63429.00235</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>66116.51132999999</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>120845.288</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>2.14003</v>
@@ -3428,14 +3118,19 @@
         <v>0.2027</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>716.7509699999999</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>718.64096</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>2639.491</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>1100.74161</v>
@@ -3456,7 +3151,7 @@
         <v>3535.74118</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>1871.96474</v>
+        <v>2834.09237</v>
       </c>
       <c r="J54" s="21" t="n">
         <v>3527.80971</v>
@@ -3468,14 +3163,19 @@
         <v>3802.07945</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>7881.14638</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>7916.8152</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>5222.043</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>2507.74321</v>
@@ -3493,10 +3193,10 @@
         <v>3170.47556</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>4613.918239999999</v>
+        <v>4614.291190000001</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>5491.634160000001</v>
+        <v>6346.69465</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>11163.33412</v>
@@ -3508,14 +3208,19 @@
         <v>32407.68146</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>46121.17184</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>47106.43455</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>15563.107</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1188.48107</v>
@@ -3527,16 +3232,16 @@
         <v>1798.28626</v>
       </c>
       <c r="F56" s="21" t="n">
-        <v>4659.08105</v>
+        <v>4659.081050000001</v>
       </c>
       <c r="G56" s="22" t="n">
         <v>5447.521060000001</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>3149.49565</v>
+        <v>3154.53229</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>2347.11603</v>
+        <v>2355.4293</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>2782.15139</v>
@@ -3548,14 +3253,19 @@
         <v>14229.89502</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>30346.93075</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>30377.4789</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>34185.358</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>63.17523000000001</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>1111.06454</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>1171.8</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>624.56763</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>7.959</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>287.66951</v>
@@ -3656,7 +3376,7 @@
         <v>509.75028</v>
       </c>
       <c r="I59" s="22" t="n">
-        <v>595.8590799999999</v>
+        <v>595.8590800000001</v>
       </c>
       <c r="J59" s="21" t="n">
         <v>632.3684499999999</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>1699.2115</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>4090.201</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>125835.94061</v>
@@ -3732,29 +3462,34 @@
         <v>239967.42225</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>238823.4713</v>
+        <v>239968.57451</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>264430.13414</v>
+        <v>274408.5412999999</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>331854.4041</v>
+        <v>337316.6013</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>390761.77029</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>488637.9516</v>
+        <v>491656.30809</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>700127.16934</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>711360.74688</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>1350294.291</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>465.97575</v>
@@ -3766,35 +3501,40 @@
         <v>540.9635800000001</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>571.5497100000001</v>
+        <v>571.54971</v>
       </c>
       <c r="G62" s="36" t="n">
         <v>1394.34163</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>361.45481</v>
+        <v>364.15231</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>440.5462499999999</v>
+        <v>445.05153</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>1109.5075</v>
+        <v>2650.18283</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>2619.05547</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>6140.210609999999</v>
+        <v>6140.21061</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>2178.26344</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>2183.47136</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>3239.296</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>326.386</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>1019.15</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>139.58975</v>
@@ -3972,29 +3732,34 @@
         <v>317.49843</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>151.77481</v>
+        <v>154.47231</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>360.3662499999999</v>
+        <v>364.87153</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>612.5059100000001</v>
+        <v>2153.18124</v>
       </c>
       <c r="K67" s="22" t="n">
-        <v>2619.05547</v>
+        <v>2619.055470000001</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>6140.210609999999</v>
+        <v>6140.21061</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>2178.26344</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>2183.47136</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>2220.146</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>615.11662</v>
@@ -4058,7 +3828,7 @@
         <v>1251.93837</v>
       </c>
       <c r="J69" s="37" t="n">
-        <v>5840.69591</v>
+        <v>8911.918230000001</v>
       </c>
       <c r="K69" s="36" t="n">
         <v>10</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>710.10013</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>1026.07</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>527.7954599999999</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>675.10013</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>991.0700000000001</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>87.32116000000001</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>35</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>35</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0</v>
@@ -4258,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="21" t="n">
-        <v>0</v>
+        <v>3071.22232</v>
       </c>
       <c r="K74" s="22" t="n">
         <v>0</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>10881.73516</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>60498.05284</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>171519.918</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>310.77368</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>4937.65044</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>20604.286</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>2410.29752</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>9317.05732</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>12962.818</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>338.22922</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>8599.946450000001</v>
@@ -4609,7 +4449,7 @@
         <v>8925.896450000002</v>
       </c>
       <c r="G83" s="22" t="n">
-        <v>9582.974249999999</v>
+        <v>9582.974250000001</v>
       </c>
       <c r="H83" s="21" t="n">
         <v>10457.05434</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>46337.39507999999</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>143496.864</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>101.05327</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>94.05</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>5544.05</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>99955.71175999999</v>
@@ -4812,29 +4677,34 @@
         <v>176138.40827</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>179723.25728</v>
+        <v>180751.48359</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>206687.1086</v>
+        <v>213769.58186</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>259422.85126</v>
+        <v>260249.22895</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>296387.77126</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>368455.04204</v>
+        <v>369516.30001</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>551888.5127999999</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>557881.8591700001</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>1062493.848</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>1434.30091</v>
@@ -4849,32 +4719,37 @@
         <v>2021.72289</v>
       </c>
       <c r="G89" s="22" t="n">
-        <v>5893.24819</v>
+        <v>5893.248190000001</v>
       </c>
       <c r="H89" s="21" t="n">
         <v>19872.12474</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>29443.47355</v>
+        <v>29643.71321</v>
       </c>
       <c r="J89" s="21" t="n">
         <v>35068.69108</v>
       </c>
       <c r="K89" s="22" t="n">
-        <v>48484.99286999999</v>
+        <v>48484.99287</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>60827.1028</v>
+        <v>60854.10280000001</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>64179.11154999999</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>64206.11154999999</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>87961.622</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>8265.755160000001</v>
@@ -4883,7 +4758,7 @@
         <v>8380.971599999999</v>
       </c>
       <c r="E90" s="22" t="n">
-        <v>8446.911690000001</v>
+        <v>8446.911689999999</v>
       </c>
       <c r="F90" s="21" t="n">
         <v>8568.678800000002</v>
@@ -4892,10 +4767,10 @@
         <v>9244.938609999999</v>
       </c>
       <c r="H90" s="21" t="n">
-        <v>9245.59144</v>
+        <v>9356.318810000001</v>
       </c>
       <c r="I90" s="22" t="n">
-        <v>9180.361439999999</v>
+        <v>9391.410810000001</v>
       </c>
       <c r="J90" s="21" t="n">
         <v>10466.79211</v>
@@ -4907,14 +4782,19 @@
         <v>13926.29008</v>
       </c>
       <c r="M90" s="22" t="n">
-        <v>14346.83232</v>
-      </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+        <v>14457.55969</v>
+      </c>
+      <c r="N90" s="22" t="n">
+        <v>18134.245</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>67428.86489</v>
@@ -4926,19 +4806,19 @@
         <v>76189.73079</v>
       </c>
       <c r="F91" s="21" t="n">
-        <v>83671.03949000001</v>
+        <v>83671.03949</v>
       </c>
       <c r="G91" s="22" t="n">
         <v>102890.45972</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>103794.91772</v>
+        <v>104605.40855</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>110239.83665</v>
+        <v>114493.29066</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>141656.60611</v>
+        <v>142032.71111</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>157379.73978</v>
@@ -4947,14 +4827,19 @@
         <v>158594.45423</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>194616.38922</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>198337.17477</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>283840.02</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>29383.33291</v>
@@ -4966,35 +4851,40 @@
         <v>38188.67786</v>
       </c>
       <c r="F92" s="21" t="n">
-        <v>52622.61212</v>
+        <v>52622.61212000001</v>
       </c>
       <c r="G92" s="22" t="n">
         <v>63302.72024</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>76341.1232</v>
+        <v>77137.40742</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>70368.95358999999</v>
+        <v>76473.96550000001</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>96516.92606</v>
+        <v>96948.84589</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>115764.36487</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>145934.14279</v>
+        <v>146182.67792</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>182422.93039</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>186116.53698</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>271889.312</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>14113.42325</v>
@@ -5012,29 +4902,34 @@
         <v>25855.87816</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>26492.99775</v>
+        <v>26829.65961</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>29916.52519</v>
+        <v>30484.27998</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>35838.13996</v>
+        <v>36196.13819</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>36190.94355</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>45453.23186</v>
+        <v>46006.53984</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>53744.6596</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>54632.32643000001</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>79904.762</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>11091.37148</v>
@@ -5052,29 +4947,34 @@
         <v>18345.23471</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>20711.36222</v>
+        <v>20826.44157</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>23539.36935</v>
+        <v>24341.71983</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>28343.75873</v>
+        <v>28547.23443</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>35450.50848</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>43246.19011000001</v>
+        <v>43328.23181999999</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>54900.78506</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>55368.75395</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>87950.76300000001</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>877.98446</v>
@@ -5092,7 +4992,7 @@
         <v>1322.31159</v>
       </c>
       <c r="H95" s="21" t="n">
-        <v>677.5432099999999</v>
+        <v>677.54321</v>
       </c>
       <c r="I95" s="22" t="n">
         <v>729.6491500000001</v>
@@ -5104,17 +5004,22 @@
         <v>693.55592</v>
       </c>
       <c r="L95" s="22" t="n">
-        <v>789.55624</v>
+        <v>828.95624</v>
       </c>
       <c r="M95" s="22" t="n">
         <v>833.45624</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>855.206</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>46352.36458</v>
@@ -5126,35 +5031,40 @@
         <v>51999.85212</v>
       </c>
       <c r="F96" s="21" t="n">
-        <v>62363.26949</v>
+        <v>62363.26948999999</v>
       </c>
       <c r="G96" s="22" t="n">
         <v>78221.75434</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>93964.08258</v>
+        <v>95105.0999</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>90379.35488000001</v>
+        <v>95908.43101</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>113596.91845</v>
+        <v>114163.96152</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>133388.90427</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>162986.53005</v>
+        <v>163336.5339</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>192049.1342</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>195383.54306</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>253297.142</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>11632.32061</v>
@@ -5175,10 +5085,10 @@
         <v>14486.04522</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>18728.44801</v>
+        <v>19200.13718</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>13392.68065</v>
+        <v>13416.60265</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>18799.42666</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>170832.10327</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>422108.492</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>2080.72267</v>
@@ -5224,17 +5139,22 @@
         <v>5539.8199</v>
       </c>
       <c r="L98" s="22" t="n">
-        <v>17615.93292</v>
+        <v>18076.90992</v>
       </c>
       <c r="M98" s="22" t="n">
-        <v>8061.379349999999</v>
-      </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+        <v>8481.379349999999</v>
+      </c>
+      <c r="N98" s="22" t="n">
+        <v>63146.568</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>12463.30451</v>
@@ -5252,29 +5172,34 @@
         <v>25068.22784</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>31409.75727</v>
+        <v>31523.93667</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>33305.66899</v>
+        <v>34696.39573</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>40222.12559</v>
+        <v>40232.72454</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>44901.95194</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>55317.55968000001</v>
+        <v>57180.04476999999</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>65941.30632</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>69991.1134</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>90706.147</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>10173.87766</v>
@@ -5292,10 +5217,10 @@
         <v>25625.89584</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>31936.49516</v>
+        <v>31956.3844</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>33131.67689</v>
+        <v>34550.59408</v>
       </c>
       <c r="J100" s="21" t="n">
         <v>39703.10721</v>
@@ -5304,17 +5229,22 @@
         <v>44698.71618</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>53248.3662</v>
+        <v>55036.00196000001</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>63719.82532</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>67688.34432999999</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>86910.393</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,24 +5279,29 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
-        <v>78.55607000000001</v>
+        <v>78.55606999999999</v>
       </c>
       <c r="D102" s="22" t="n">
-        <v>85.35106999999999</v>
+        <v>85.35107000000001</v>
       </c>
       <c r="E102" s="22" t="n">
         <v>81.33391</v>
       </c>
       <c r="F102" s="21" t="n">
-        <v>86.38040000000001</v>
+        <v>86.38039999999999</v>
       </c>
       <c r="G102" s="22" t="n">
         <v>101.65969</v>
@@ -5375,7 +5310,7 @@
         <v>100.40737</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>85.9729</v>
+        <v>96.65707999999999</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>100.13852</v>
@@ -5384,17 +5319,22 @@
         <v>103.84362</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>106.65016</v>
+        <v>118.07436</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>114.90799</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>120.45965</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>172.555</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>132.39677</v>
@@ -5412,10 +5352,10 @@
         <v>1379.69097</v>
       </c>
       <c r="H103" s="21" t="n">
-        <v>1306.54536</v>
+        <v>1417.67706</v>
       </c>
       <c r="I103" s="22" t="n">
-        <v>1493.74232</v>
+        <v>1604.87402</v>
       </c>
       <c r="J103" s="21" t="n">
         <v>2876.42004</v>
@@ -5424,20 +5364,25 @@
         <v>3870.38695</v>
       </c>
       <c r="L103" s="22" t="n">
-        <v>6597.7796</v>
+        <v>6700.158820000001</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>11871.88182</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>11983.01352</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>22485.327</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
-        <v>7651.178790000001</v>
+        <v>7651.17879</v>
       </c>
       <c r="D104" s="22" t="n">
         <v>5833.99276</v>
@@ -5449,13 +5394,13 @@
         <v>6326.62288</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>6890.999790000001</v>
+        <v>6890.99979</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>6516.549379999999</v>
+        <v>6710.51148</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>8406.041319999998</v>
+        <v>8600.003419999999</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>9376.838740000001</v>
@@ -5464,17 +5409,22 @@
         <v>10000.08363</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>12875.07589</v>
+        <v>12889.06655</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>14086.34914</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>14410.34458</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>19063.091</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>2262.36237</v>
@@ -5483,7 +5433,7 @@
         <v>1681.63045</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>496.8870199999999</v>
+        <v>496.88702</v>
       </c>
       <c r="F105" s="21" t="n">
         <v>618.7922</v>
@@ -5495,10 +5445,10 @@
         <v>4823.73175</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>6203.09042</v>
+        <v>6458.1803</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>7845.646779999999</v>
+        <v>7866.18579</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>9952.967689999999</v>
@@ -5507,20 +5457,25 @@
         <v>9672.305339999999</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>9786.979160000001</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>9798.909079999999</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>11721.317</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>7835.067150000001</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>6617.641030000001</v>
+        <v>6617.64103</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>7966.39174</v>
@@ -5532,29 +5487,34 @@
         <v>12499.03904</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>13273.97175</v>
+        <v>13484.77539</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>16076.29383</v>
+        <v>16675.35214</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>19680.0257</v>
+        <v>19689.96576</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>23724.04613</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>27182.61751</v>
+        <v>27235.56226</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>33638.63711</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>34009.95776</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>50097.459</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>450.923</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>1454.09681</v>
@@ -5855,26 +5850,31 @@
         <v>3902.73442</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>7363.013099999999</v>
+        <v>8863.714980000001</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>8961.473619999999</v>
+        <v>8974.796530000001</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>14848.02529</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>20173.60149</v>
+        <v>20272.46567</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>18015.51181</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>18392.46859</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>19012.437</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>1453.45993</v>
@@ -5895,26 +5895,31 @@
         <v>3902.73442</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>7363.013099999999</v>
+        <v>8863.714980000001</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>8961.473619999999</v>
+        <v>8974.796530000001</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>14848.02529</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>20173.16259</v>
+        <v>20272.02677</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>18015.51181</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>18392.46859</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>19012.437</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0.63688</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>0</v>
@@ -5984,17 +5994,22 @@
         <v>1458.33037</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>1706.99617</v>
+        <v>1702.74542</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>895.4219999999999</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>1703.68139</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>2296.575</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0.95339</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6224,17 +6264,22 @@
         <v>0</v>
       </c>
       <c r="L123" s="22" t="n">
-        <v>4.25075</v>
+        <v>0</v>
       </c>
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0.4767</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>215.947</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6347,51 +6402,59 @@
         <v>1702.26873</v>
       </c>
       <c r="M126" s="22" t="n">
-        <v>894.9453099999999</v>
-      </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+        <v>1703.2047</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>2511.463</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>460012.73687</v>
       </c>
       <c r="D127" s="23" t="n">
-        <v>545251.6485700001</v>
+        <v>545251.64857</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>770843.7490899999</v>
+        <v>770843.7490900001</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>833843.6793600001</v>
+        <v>833843.6793600002</v>
       </c>
       <c r="G127" s="23" t="n">
         <v>1056986.68525</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>1117859.1416</v>
+        <v>1122022.78982</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>1331215.96247</v>
+        <v>1394883.23627</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1706982.18428</v>
+        <v>1767019.57382</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>2347248.33854</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>3361865.35187</v>
+        <v>3374553.54547</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>4500187.725670001</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>4542064.41626</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>7361827.678</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>202-Manufacture of pesticides and other agrochemical products</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>183970.69744</v>
@@ -6501,32 +6578,37 @@
         <v>386765.37535</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>484269.23667</v>
+        <v>484269.2366700001</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>503839.36002</v>
+        <v>506668.6849</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>588797.1240599999</v>
+        <v>619341.45351</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>715144.25376</v>
+        <v>751587.7896700001</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1074258.36937</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>1566025.42812</v>
+        <v>1575560.71291</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1650018.23028</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1666171.91069</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>3537702.263</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>50145.82256</v>
@@ -6544,29 +6626,34 @@
         <v>228103.22671</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>274354.088</v>
+        <v>276028.34642</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>239708.23481</v>
+        <v>264313.97592</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>242464.04451</v>
+        <v>243840.41751</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>329256.08152</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>775227.2598900001</v>
+        <v>775227.25989</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>746276.5403499998</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>753267.3011700001</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>1700333.256</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>48766.70397</v>
@@ -6584,38 +6671,43 @@
         <v>226546.47834</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>267966.23428</v>
+        <v>269640.4927000001</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>231139.30071</v>
+        <v>255745.04182</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>232994.25519</v>
+        <v>234370.62819</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>316565.2034</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>657100.68188</v>
+        <v>657100.6818799999</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>734702.03009</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>741554.00713</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>1469453.822</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>1293.27825</v>
       </c>
       <c r="D135" s="22" t="n">
-        <v>746.81783</v>
+        <v>746.8178300000001</v>
       </c>
       <c r="E135" s="22" t="n">
-        <v>843.7008600000001</v>
+        <v>843.70086</v>
       </c>
       <c r="F135" s="21" t="n">
         <v>298.6658</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>1937.08093</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>2212.89</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>249.91845</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>714.11234</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>211.17</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>118.51767</v>
@@ -6710,7 +6812,7 @@
         <v>5899.71267</v>
       </c>
       <c r="J137" s="21" t="n">
-        <v>7374.12161</v>
+        <v>7374.121609999999</v>
       </c>
       <c r="K137" s="22" t="n">
         <v>10830.28603</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>8851.638370000001</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>166174.334</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6759,14 +6866,19 @@
         <v>0</v>
       </c>
       <c r="M138" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+        <v>17.45785</v>
+      </c>
+      <c r="N138" s="22" t="n">
+        <v>17.458</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>57000</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>217.24112</v>
@@ -6910,7 +7037,7 @@
         <v>2341.24342</v>
       </c>
       <c r="J142" s="21" t="n">
-        <v>796.6166900000001</v>
+        <v>796.6166899999999</v>
       </c>
       <c r="K142" s="22" t="n">
         <v>760.40987</v>
@@ -6919,17 +7046,22 @@
         <v>1095.34194</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>1499.9033</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>1621.22923</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>5685.922</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
-        <v>87264.12976000001</v>
+        <v>87264.12976</v>
       </c>
       <c r="D143" s="46" t="n">
         <v>107451.62834</v>
@@ -6944,29 +7076,34 @@
         <v>187274.55717</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>141397.23827</v>
+        <v>142188.50443</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>230719.08299</v>
+        <v>233739.94745</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>309027.57264</v>
+        <v>343280.8605</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>472955.94849</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>610365.4416700001</v>
+        <v>618413.1029100001</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>656180.2218899999</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>661169.88587</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>1091651.525</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>75304.21441</v>
@@ -6984,29 +7121,34 @@
         <v>162485.3499</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>98206.69212000001</v>
+        <v>98955.80777000001</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>194889.69985</v>
+        <v>197478.14284</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>252776.05307</v>
+        <v>287029.34093</v>
       </c>
       <c r="K144" s="25" t="n">
-        <v>404308.4664799999</v>
+        <v>404308.46648</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>536065.03915</v>
+        <v>544064.47948</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>565889.97678</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>567687.96507</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>979457.564</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>8908.024890000001</v>
@@ -7024,29 +7166,34 @@
         <v>20188.52854</v>
       </c>
       <c r="H145" s="24" t="n">
-        <v>36412.99348</v>
+        <v>36455.14399</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>31323.41499</v>
+        <v>31706.01499</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>53103.0115</v>
       </c>
       <c r="K145" s="25" t="n">
-        <v>64794.5902</v>
+        <v>64794.59020000001</v>
       </c>
       <c r="L145" s="25" t="n">
         <v>68758.40037999999</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>81403.29306</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>84550.84806</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>86617.88499999999</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>4.57281</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>1828.75255</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>4124.861</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>2259.39063</v>
@@ -7119,17 +7271,22 @@
         <v>17.62179</v>
       </c>
       <c r="M147" s="25" t="n">
-        <v>770.8493100000001</v>
-      </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+        <v>774.7217900000001</v>
+      </c>
+      <c r="N147" s="25" t="n">
+        <v>31.822</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
-        <v>797.0726399999999</v>
+        <v>797.07264</v>
       </c>
       <c r="D148" s="25" t="n">
         <v>2688.85886</v>
@@ -7141,13 +7298,13 @@
         <v>4036.98249</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>4653.262470000001</v>
+        <v>4653.26247</v>
       </c>
       <c r="H148" s="24" t="n">
         <v>5812.67463</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>4580.49067</v>
+        <v>4630.31214</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>3303.87175</v>
@@ -7156,17 +7313,22 @@
         <v>3920.77338</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>5770.015550000001</v>
+        <v>5818.23646</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>9944.85529</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>9985.103499999999</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>29669.115</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>15590.27648</v>
@@ -7184,29 +7346,34 @@
         <v>20405.26613</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>51768.07178</v>
+        <v>51846.91161</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>75769.99119999999</v>
+        <v>77263.73230000002</v>
       </c>
       <c r="J149" s="33" t="n">
         <v>73905.95955</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>51465.52980999999</v>
+        <v>51465.52981</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>60209.07952</v>
+        <v>60813.44587</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>69559.62273</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>72938.63937999999</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>213162.407</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>13324.32238</v>
@@ -7218,7 +7385,7 @@
         <v>17273.01451</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>42331.51381000001</v>
+        <v>42331.51381</v>
       </c>
       <c r="G150" s="22" t="n">
         <v>17794.12581</v>
@@ -7227,26 +7394,31 @@
         <v>48722.88634999999</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>72867.68268</v>
+        <v>74126.67801</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>68911.64535999998</v>
+        <v>68911.64535999999</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>45752.86440000001</v>
+        <v>45752.8644</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>50497.12004</v>
+        <v>51099.77672</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>38073.39701</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>40586.16222</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>92775.996</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>74.39333999999999</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>328.3335300000001</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>688.169</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>477.36341</v>
@@ -7344,10 +7526,10 @@
         <v>1391.35388</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>2066.88154</v>
+        <v>2137.16658</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>1605.86227</v>
+        <v>1815.32506</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>3153.85118</v>
@@ -7356,17 +7538,22 @@
         <v>4120.74189</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>4321.36121</v>
+        <v>4323.07088</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>4399.79356</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>5192.449390000001</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>8939.821</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>1714.19735</v>
@@ -7384,10 +7571,10 @@
         <v>894.18573</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>978.3038899999999</v>
+        <v>986.8586799999999</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>1296.44625</v>
+        <v>1321.72923</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>1840.46301</v>
@@ -7399,14 +7586,19 @@
         <v>5390.59827</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>26758.09863</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>26831.69424</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>110803.563</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,18 +7633,23 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>45.142</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>23350.96341</v>
       </c>
       <c r="D156" s="23" t="n">
-        <v>25545.77695000001</v>
+        <v>25545.77695</v>
       </c>
       <c r="E156" s="23" t="n">
         <v>37478.50069</v>
@@ -7464,10 +7661,10 @@
         <v>35565.39822</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>21485.18</v>
+        <v>21676.11875000001</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>25987.31738</v>
+        <v>26312.85374</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>61727.71439</v>
@@ -7476,23 +7673,28 @@
         <v>171696.80426</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>52854.04009</v>
+        <v>52868.01632</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>84243.47752</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>83216.76539</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>377683.955</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>23350.96341</v>
       </c>
       <c r="D157" s="22" t="n">
-        <v>25545.77695000001</v>
+        <v>25545.77695</v>
       </c>
       <c r="E157" s="22" t="n">
         <v>37446.33473</v>
@@ -7504,10 +7706,10 @@
         <v>35525.99129999999</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>18583.1966</v>
+        <v>18774.13535</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>25664.89768</v>
+        <v>25990.43404</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>61725.20378</v>
@@ -7516,17 +7718,22 @@
         <v>171392.7387</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>52594.07762999999</v>
+        <v>52608.05386</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>84178.16041</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>83151.44828</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>377611.223</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>0</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>65.31711</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>72.732</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>4247.00074</v>
@@ -7701,32 +7928,37 @@
         <v>6917.454100000001</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>7706.373390000001</v>
+        <v>7706.37339</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>9006.23869</v>
+        <v>9068.83344</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>9723.17251</v>
+        <v>9868.076730000001</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>18375.24021</v>
+        <v>18596.26189</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>23554.91853</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>22002.53771</v>
+        <v>22825.68141</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>38684.6073</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>40356.86051</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>58524.997</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1317.67166</v>
@@ -7744,29 +7976,34 @@
         <v>3175.05045</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>4105.6498</v>
+        <v>4135.29856</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>5226.08406</v>
+        <v>5291.409900000001</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>7113.70761</v>
+        <v>7164.739320000001</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>12270.56187</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>12772.83634</v>
+        <v>12840.92802</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>28817.36157</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>29261.00198</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>40131.676</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2289.30488</v>
@@ -7784,32 +8021,37 @@
         <v>2090.39746</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>2598.73028</v>
+        <v>2619.47494</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>2696.19471</v>
+        <v>2775.77309</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>5146.9738</v>
+        <v>5187.99177</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>5999.66424</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>5755.47543</v>
+        <v>5790.5436</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>5798.66552</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>6364.86022</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>8798.084999999999</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
-        <v>613.8010099999999</v>
+        <v>613.80101</v>
       </c>
       <c r="D165" s="22" t="n">
         <v>1223.72605</v>
@@ -7824,29 +8066,34 @@
         <v>2437.0782</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>2277.45745</v>
+        <v>2289.65878</v>
       </c>
       <c r="I165" s="22" t="n">
         <v>1799.75123</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>6110.702160000001</v>
+        <v>6239.67416</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>5265.85332</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>3394.18942</v>
+        <v>4114.17327</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>3966.76963</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>4629.18773</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>9515.205</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>26.22319</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>101.81058</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>80.03100000000001</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>2325.5768</v>
@@ -7904,29 +8156,34 @@
         <v>3024.52097</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>2396.37426</v>
+        <v>2427.80123</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>3153.31601</v>
+        <v>4048.24271</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>5340.13237</v>
+        <v>5932.98574</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>12803.75</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>13703.19544</v>
+        <v>13749.33271</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>9586.24331</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>9727.048939999999</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>18420.934</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>4824.63176</v>
@@ -7944,35 +8201,40 @@
         <v>13240.81086</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>20357.31013</v>
+        <v>20429.08457</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>26892.31716</v>
+        <v>27805.80981</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>31197.53629</v>
+        <v>31949.71032</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>50872.28996</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>79493.32291000002</v>
+        <v>79498.86102000001</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>121107.33942</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>121461.51299</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>118399.119</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>2562.30735</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>5105.433069999999</v>
+        <v>5105.43307</v>
       </c>
       <c r="E169" s="22" t="n">
         <v>10665.30676</v>
@@ -7984,29 +8246,34 @@
         <v>10771.03956</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>18502.34996</v>
+        <v>18542.69743</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>24934.81959</v>
+        <v>24953.38554</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>27878.91962</v>
+        <v>28178.31028</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>40140.15323</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>67276.02379000001</v>
+        <v>67235.42462999999</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>112692.86011</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>112906.22805</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>100162.964</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8030,7 +8297,7 @@
         <v>156.006</v>
       </c>
       <c r="J170" s="21" t="n">
-        <v>0</v>
+        <v>140.07</v>
       </c>
       <c r="K170" s="22" t="n">
         <v>60.308</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>83.486</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>162.677</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>63.25239</v>
@@ -8121,18 +8398,23 @@
       <c r="M172" s="22" t="n">
         <v>1088.278</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>22.102</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
-        <v>590.7179100000001</v>
+        <v>590.71791</v>
       </c>
       <c r="D173" s="23" t="n">
-        <v>550.3286699999999</v>
+        <v>550.32867</v>
       </c>
       <c r="E173" s="23" t="n">
         <v>1484.79678</v>
@@ -8147,7 +8429,7 @@
         <v>3400.95135</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>3732.93895</v>
+        <v>3791.55445</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>3494.57986</v>
@@ -8159,14 +8441,19 @@
         <v>30983.41975</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>44651.55723000001</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>44659.44948</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>75621.10400000001</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>50.95864</v>
@@ -8201,24 +8488,29 @@
       <c r="M174" s="22" t="n">
         <v>1986.08295</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>16171.481</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>539.75927</v>
       </c>
       <c r="D175" s="22" t="n">
-        <v>549.5035199999999</v>
+        <v>549.50352</v>
       </c>
       <c r="E175" s="22" t="n">
         <v>1218.65077</v>
       </c>
       <c r="F175" s="21" t="n">
-        <v>844.90414</v>
+        <v>844.9041399999999</v>
       </c>
       <c r="G175" s="22" t="n">
         <v>2154.4792</v>
@@ -8227,7 +8519,7 @@
         <v>3400.95135</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>3696.72864</v>
+        <v>3755.34414</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>2934.38687</v>
@@ -8239,20 +8531,25 @@
         <v>30983.41975</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>42665.47428000001</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>42673.36653</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>59449.623</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>456.20978</v>
       </c>
       <c r="D176" s="23" t="n">
-        <v>532.80765</v>
+        <v>532.8076499999999</v>
       </c>
       <c r="E176" s="23" t="n">
         <v>301.75718</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>835.95995</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>2304.085</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8298,7 +8600,7 @@
         <v>0.13185</v>
       </c>
       <c r="F177" s="21" t="n">
-        <v>7.223280000000001</v>
+        <v>7.22328</v>
       </c>
       <c r="G177" s="22" t="n">
         <v>0.00028</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>815.18147</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>1831.135</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>169.21411</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0.61578</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>344.795</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>20.1627</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>286.99567</v>
@@ -8481,18 +8803,23 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>92.405</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>39652.91026</v>
       </c>
       <c r="D182" s="23" t="n">
-        <v>53501.05679</v>
+        <v>53501.05679000001</v>
       </c>
       <c r="E182" s="23" t="n">
         <v>79861.26672</v>
@@ -8504,29 +8831,34 @@
         <v>124818.85644</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>180896.56095</v>
+        <v>180938.03103</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>210262.20179</v>
+        <v>220444.62178</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>265509.31173</v>
+        <v>264771.44573</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>350433.00056</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>534946.20208</v>
+        <v>536361.9908199999</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>904702.08276</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>913183.78798</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>899276.233</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>24467.14156</v>
@@ -8535,7 +8867,7 @@
         <v>34517.05022</v>
       </c>
       <c r="E183" s="23" t="n">
-        <v>46856.78792999999</v>
+        <v>46856.78793</v>
       </c>
       <c r="F183" s="33" t="n">
         <v>32387.87936</v>
@@ -8544,10 +8876,10 @@
         <v>84418.87766</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>141949.90956</v>
+        <v>141991.37964</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>143311.48874</v>
+        <v>152912.65767</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>211167.09899</v>
@@ -8556,17 +8888,22 @@
         <v>272920.28488</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>395054.88255</v>
+        <v>395902.15573</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>782177.3971300002</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>789865.8738299999</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>772706.845</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>21919.41685</v>
@@ -8584,10 +8921,10 @@
         <v>82539.83553</v>
       </c>
       <c r="H184" s="21" t="n">
-        <v>131160.81927</v>
+        <v>131202.28935</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>131810.75057</v>
+        <v>141334.27424</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>199674.06497</v>
@@ -8599,14 +8936,19 @@
         <v>348312.25433</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>679149.9500100001</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>686815.3318</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>757784.395</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>2845.93126</v>
@@ -8627,26 +8969,31 @@
         <v>2830.6671</v>
       </c>
       <c r="I185" s="22" t="n">
-        <v>3589.73253</v>
+        <v>3667.37779</v>
       </c>
       <c r="J185" s="21" t="n">
         <v>4254.95811</v>
       </c>
       <c r="K185" s="22" t="n">
-        <v>5146.340270000001</v>
+        <v>5146.34027</v>
       </c>
       <c r="L185" s="22" t="n">
-        <v>9305.288620000001</v>
+        <v>10334.43095</v>
       </c>
       <c r="M185" s="22" t="n">
         <v>8054.46334</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>12126.887</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>357.84965</v>
@@ -8676,17 +9023,22 @@
         <v>723.1055200000001</v>
       </c>
       <c r="L186" s="22" t="n">
-        <v>1539.5379</v>
+        <v>1721.40705</v>
       </c>
       <c r="M186" s="22" t="n">
         <v>1264.53332</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>1234.837</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>95000</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>59.6431</v>
@@ -8839,14 +9206,19 @@
         <v>3622.91602</v>
       </c>
       <c r="M190" s="22" t="n">
-        <v>1237.5171</v>
-      </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+        <v>1260.61201</v>
+      </c>
+      <c r="N190" s="22" t="n">
+        <v>530.4</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>1048.03499</v>
@@ -8858,7 +9230,7 @@
         <v>7049.598109999999</v>
       </c>
       <c r="F191" s="33" t="n">
-        <v>4616.874930000001</v>
+        <v>4616.87493</v>
       </c>
       <c r="G191" s="23" t="n">
         <v>6878.48047</v>
@@ -8870,23 +9242,28 @@
         <v>15787.35121</v>
       </c>
       <c r="J191" s="33" t="n">
-        <v>19990.70599</v>
+        <v>19252.83999</v>
       </c>
       <c r="K191" s="23" t="n">
         <v>12863.19701</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>12875.3264</v>
+        <v>13192.2231</v>
       </c>
       <c r="M191" s="23" t="n">
-        <v>9621.056030000002</v>
-      </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+        <v>9754.983039999999</v>
+      </c>
+      <c r="N191" s="23" t="n">
+        <v>2707.719</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>601.13829</v>
@@ -8898,10 +9275,10 @@
         <v>6642.701410000001</v>
       </c>
       <c r="F192" s="21" t="n">
-        <v>4026.649850000001</v>
+        <v>4026.64985</v>
       </c>
       <c r="G192" s="22" t="n">
-        <v>6496.159050000001</v>
+        <v>6496.15905</v>
       </c>
       <c r="H192" s="21" t="n">
         <v>8112.03171</v>
@@ -8919,14 +9296,19 @@
         <v>11009.73761</v>
       </c>
       <c r="M192" s="22" t="n">
-        <v>6059.44075</v>
-      </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+        <v>6186.029970000001</v>
+      </c>
+      <c r="N192" s="22" t="n">
+        <v>2155.662</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>40</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>3244.71858</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>544.7190000000001</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -8990,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="21" t="n">
-        <v>0</v>
+        <v>737.866</v>
       </c>
       <c r="K194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9039,14 +9431,19 @@
         <v>52.33779</v>
       </c>
       <c r="M195" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+        <v>7.33779</v>
+      </c>
+      <c r="N195" s="22" t="n">
+        <v>7.338</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>406.8967</v>
@@ -9076,17 +9473,22 @@
         <v>316.8967</v>
       </c>
       <c r="L196" s="22" t="n">
-        <v>0</v>
+        <v>316.8967</v>
       </c>
       <c r="M196" s="22" t="n">
         <v>316.8967</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>11181.68395</v>
@@ -9113,20 +9515,25 @@
         <v>31509.95662</v>
       </c>
       <c r="K197" s="23" t="n">
-        <v>56703.81658</v>
+        <v>56703.81658000001</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>112146.43872</v>
+        <v>112398.05758</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>98586.12957999999</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>98730.64956000001</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>103108.234</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>10681.68395</v>
@@ -9156,17 +9563,22 @@
         <v>56500.25059</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>110254.47151</v>
+        <v>110506.09037</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>97512.55153</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>97604.45642999999</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>102597.651</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>500</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9359,14 +9791,19 @@
         <v>1849.28357</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>1073.57805</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>1126.19313</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>510.583</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>195.22863</v>
@@ -9387,26 +9824,31 @@
         <v>1310.52896</v>
       </c>
       <c r="I204" s="23" t="n">
-        <v>965.29887</v>
+        <v>965.2988700000001</v>
       </c>
       <c r="J204" s="33" t="n">
         <v>1721.34961</v>
       </c>
       <c r="K204" s="23" t="n">
-        <v>7133.16978</v>
+        <v>7133.169779999999</v>
       </c>
       <c r="L204" s="23" t="n">
         <v>8396.02757</v>
       </c>
       <c r="M204" s="23" t="n">
-        <v>8297.51866</v>
-      </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+        <v>8812.30019</v>
+      </c>
+      <c r="N204" s="23" t="n">
+        <v>14233.602</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>195.22863</v>
@@ -9427,26 +9869,31 @@
         <v>1310.52896</v>
       </c>
       <c r="I205" s="22" t="n">
-        <v>965.29887</v>
+        <v>965.2988700000001</v>
       </c>
       <c r="J205" s="21" t="n">
         <v>1721.34961</v>
       </c>
       <c r="K205" s="22" t="n">
-        <v>7133.16978</v>
+        <v>7133.169779999999</v>
       </c>
       <c r="L205" s="22" t="n">
         <v>8396.02757</v>
       </c>
       <c r="M205" s="22" t="n">
-        <v>8297.51866</v>
-      </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+        <v>8812.30019</v>
+      </c>
+      <c r="N205" s="22" t="n">
+        <v>14233.602</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>2760.82113</v>
@@ -9507,7 +9959,7 @@
         <v>321.81053</v>
       </c>
       <c r="I207" s="23" t="n">
-        <v>2.61935</v>
+        <v>583.87041</v>
       </c>
       <c r="J207" s="33" t="n">
         <v>498.87535</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>964.0958900000001</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>1943.23</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>2758.20178</v>
@@ -9547,7 +10004,7 @@
         <v>319.19118</v>
       </c>
       <c r="I208" s="22" t="n">
-        <v>0</v>
+        <v>581.2510600000001</v>
       </c>
       <c r="J208" s="21" t="n">
         <v>496.256</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>960.87779</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>1943.23</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>2.61935</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>3.2181</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>0</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>5055.88547</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>4576.49</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>97.83064999999999</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>20.606</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9716,17 +10193,22 @@
         <v>10.20598</v>
       </c>
       <c r="L212" s="22" t="n">
-        <v>5259.53079</v>
+        <v>5259.530790000001</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>4958.054819999999</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>4958.05482</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>4555.884</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>236389.12917</v>
@@ -9895,7 +10397,7 @@
         <v>251535.81097</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>328123.1219500001</v>
+        <v>328123.12195</v>
       </c>
       <c r="F217" s="33" t="n">
         <v>376579.60418</v>
@@ -9904,29 +10406,34 @@
         <v>447898.59214</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>433123.2206300001</v>
+        <v>434416.07389</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>532156.63662</v>
+        <v>555097.16098</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>726328.61879</v>
+        <v>750660.3384199999</v>
       </c>
       <c r="K217" s="23" t="n">
-        <v>922556.96861</v>
+        <v>922556.9686099999</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>1260893.72167</v>
+        <v>1262630.84174</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>1945467.41263</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>1962708.71759</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>2924849.182</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>198557.64524</v>
@@ -9944,29 +10451,34 @@
         <v>325612.82539</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>307288.95575</v>
+        <v>308983.96019</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>296345.27148</v>
+        <v>314143.61975</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>358465.90766</v>
+        <v>367014.27035</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>423398.36249</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>459658.5332900001</v>
+        <v>461987.18871</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>739662.4879699999</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>750164.12056</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>793276.6040000001</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>169452.00466</v>
@@ -9984,29 +10496,34 @@
         <v>319102.7672</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>300440.2172</v>
+        <v>301010.2172</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>294815.78333</v>
+        <v>311440.7833300001</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>353178.67333</v>
+        <v>361870.07333</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>416570.99833</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>456325.99834</v>
+        <v>460115.99834</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>738803.0950900001</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>749803.0950900001</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>819978.095</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>5689.512040000001</v>
@@ -10018,35 +10535,40 @@
         <v>4006.78023</v>
       </c>
       <c r="F220" s="21" t="n">
-        <v>2640.209170000001</v>
+        <v>2640.20917</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>6351.62163</v>
+        <v>6351.621630000001</v>
       </c>
       <c r="H220" s="21" t="n">
         <v>4123.28463</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>9149.208349999999</v>
+        <v>9149.208350000001</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>6379.75695</v>
+        <v>6529.381949999999</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>4799.87677</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>8294.705979999999</v>
+        <v>9758.67871</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>9212.725049999999</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>10838.72505</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>38803.835</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>34830.55986</v>
@@ -10064,29 +10586,34 @@
         <v>12861.67982</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>10972.02318</v>
+        <v>12097.02762</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>10678.6965</v>
+        <v>11852.04477</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>11666.99128</v>
+        <v>11673.57897</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>11627.24093</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>11627.24093</v>
+        <v>11629.86908</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>10072.11793</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>11199.75052</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>12342.166</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>35.40723999999999</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>239.822</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>675.38433</v>
@@ -10159,14 +10691,19 @@
         <v>29138.74352</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>13884.39064</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>17906.07564</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>19637.829</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>2256.36222</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>2256.362</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>1.50087</v>
@@ -10279,14 +10826,19 @@
         <v>3781.82495</v>
       </c>
       <c r="M226" s="22" t="n">
-        <v>1281.82495</v>
-      </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+        <v>3781.82495</v>
+      </c>
+      <c r="N226" s="22" t="n">
+        <v>3781.825</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10359,14 +10916,19 @@
         <v>22941.83143</v>
       </c>
       <c r="M228" s="22" t="n">
-        <v>7931.11633</v>
-      </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+        <v>9452.80133</v>
+      </c>
+      <c r="N228" s="22" t="n">
+        <v>7190.282</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>673.88346</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>2415.08714</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>6409.36</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>14189.32711</v>
@@ -10464,32 +11036,37 @@
         <v>21001.25867</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>24527.7256</v>
+        <v>24659.92026</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>25457.31347</v>
+        <v>25559.54307</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>35181.70125</v>
+        <v>35181.77399</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>39772.62235000001</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>43557.40573000001</v>
+        <v>43559.1562</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>166592.62855</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>166678.70515</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>350656.667</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
-        <v>5786.93139</v>
+        <v>5786.931390000001</v>
       </c>
       <c r="D232" s="22" t="n">
         <v>5733.820549999999</v>
@@ -10504,29 +11081,34 @@
         <v>14394.41561</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>15468.9019</v>
+        <v>15471.17512</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>17719.77023</v>
+        <v>17726.9615</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>24174.24991</v>
+        <v>24174.32265</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>29438.82585</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>31916.34228</v>
+        <v>31918.09275</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>54449.59493</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>54456.86815</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>65269.929</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>112.88981</v>
@@ -10547,7 +11129,7 @@
         <v>29.53584</v>
       </c>
       <c r="I233" s="22" t="n">
-        <v>46.32259000000001</v>
+        <v>46.32259</v>
       </c>
       <c r="J233" s="21" t="n">
         <v>24.1225</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>98.99915000000001</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>102.776</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>2197.84984</v>
@@ -10581,19 +11168,19 @@
         <v>4652.56601</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>5307.41573</v>
+        <v>5307.415730000001</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>7472.47035</v>
+        <v>7472.470350000001</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>5583.388619999999</v>
+        <v>5583.38862</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>7280.779949999999</v>
+        <v>7280.779950000001</v>
       </c>
       <c r="K234" s="22" t="n">
-        <v>6595.900930000001</v>
+        <v>6595.90093</v>
       </c>
       <c r="L234" s="22" t="n">
         <v>6730.10356</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>106919.2637</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>274917.074</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>445.53389</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>56.9757</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>1080.063</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>5646.122179999999</v>
@@ -10664,10 +11261,10 @@
         <v>1083.57844</v>
       </c>
       <c r="H236" s="21" t="n">
-        <v>1499.84181</v>
+        <v>1629.76325</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>1893.22633</v>
+        <v>1988.26466</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>3487.94319</v>
@@ -10679,20 +11276,25 @@
         <v>4766.44613</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>5067.79507</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>5146.59845</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>9286.825000000001</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>23428.78559</v>
       </c>
       <c r="D237" s="23" t="n">
-        <v>35523.46813</v>
+        <v>35523.46812999999</v>
       </c>
       <c r="E237" s="23" t="n">
         <v>48523.51897999999</v>
@@ -10704,29 +11306,34 @@
         <v>98552.53650999999</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>128560.12575</v>
+        <v>128945.31741</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>194199.80469</v>
+        <v>197490.96904</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>259362.70887</v>
+        <v>271072.70469</v>
       </c>
       <c r="K237" s="23" t="n">
-        <v>345939.1052399999</v>
+        <v>345939.10524</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>514664.4985500001</v>
+        <v>515298.5535600001</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>579500.28155</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>583928.2468099999</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>1037619.409</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-18323.16295</v>
@@ -10741,72 +11348,82 @@
         <v>-42268.33954</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-55601.74698999999</v>
+        <v>-55601.74699</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-110913.82901</v>
+        <v>-111966.26452</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-77351.59689</v>
+        <v>-78628.16318</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-96670.22257</v>
+        <v>-96703.61925999999</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-107788.65766</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-113794.94764</v>
+        <v>-114771.90507</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-143295.23991</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-145692.67181</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-195699.962</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>17861.14985</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>36645.46334</v>
+        <v>36645.46333999999</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>28095.69212</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>47641.64804</v>
+        <v>47641.64803999999</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>39749.493</v>
+        <v>39749.49299999999</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>71261.58405999999</v>
+        <v>71394.48207000001</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>87972.92562000001</v>
+        <v>90998.27404999999</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>104881.28103</v>
+        <v>108987.9661</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>205476.91337</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>327669.4882199999</v>
+        <v>327419.1048200001</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>589122.8638299999</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>589724.24124</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>919358.635</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>21364.4732</v>
@@ -10818,38 +11435,43 @@
         <v>48813.35859</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>62344.01827</v>
+        <v>62344.01826999999</v>
       </c>
       <c r="G240" s="22" t="n">
         <v>63862.1698</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>81938.73321999999</v>
+        <v>82071.63122999998</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>113705.00295</v>
+        <v>116743.0099</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>120427.40623</v>
+        <v>124537.11513</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>213381.97063</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>361230.4397999999</v>
+        <v>361250.07492</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>633694.4199000001</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>634951.3305</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>932887.745</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
-        <v>3503.32335</v>
+        <v>3503.323350000001</v>
       </c>
       <c r="D241" s="22" t="n">
         <v>4137.03665</v>
@@ -10867,63 +11489,71 @@
         <v>10677.14916</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>25732.07733</v>
+        <v>25744.73585</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>15546.1252</v>
+        <v>15549.14903</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>7905.05726</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>33560.95158</v>
+        <v>33830.9701</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>44571.55606999999</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>45227.08926000001</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>13529.11</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>460012.73687</v>
+        <v>460012.7368700001</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>545251.64857</v>
+        <v>545251.6485700001</v>
       </c>
       <c r="E242" s="47" t="n">
         <v>770843.7490899999</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>833843.6793599997</v>
+        <v>833843.6793600001</v>
       </c>
       <c r="G242" s="47" t="n">
         <v>1056986.68525</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>1117859.1416</v>
+        <v>1122022.78982</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>1331215.96247</v>
+        <v>1394883.23627</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1706982.18428</v>
+        <v>1767019.57382</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>2347248.33854</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>3361865.351869999</v>
+        <v>3374553.54547</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>4500187.725670001</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>4542064.41626</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>7361827.678</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>106</v>
@@ -10960,26 +11593,29 @@
         <v>134</v>
       </c>
       <c r="H244" s="53" t="n">
+        <v>130</v>
+      </c>
+      <c r="I244" s="52" t="n">
+        <v>126</v>
+      </c>
+      <c r="J244" s="53" t="n">
         <v>129</v>
-      </c>
-      <c r="I244" s="52" t="n">
-        <v>122</v>
-      </c>
-      <c r="J244" s="53" t="n">
-        <v>127</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>133</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>134</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>153</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>243</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>